--- a/biology/Botanique/Forêt_en_Autriche/Forêt_en_Autriche.xlsx
+++ b/biology/Botanique/Forêt_en_Autriche/Forêt_en_Autriche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Autriche</t>
+          <t>Forêt_en_Autriche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt autrichienne couvre 39 600 km2, ce qui correspond à 47,2 % de la surface du pays. 
 Elle est constituée à 67 % de résineux, dont 53 % d'Épicéa commun.  L'essence feuillue la plus courante est le Hêtre commun. Les autres essences importantes sont le Pin sylvestre et Mélèze d'Europe. Malgré quelques efforts pour diversifier les forêts, les pessières monospécifiques restent courantes.
